--- a/Engage/Rest-Assured-API/src/main/resources/excelfiles/Sogo_API.xlsx
+++ b/Engage/Rest-Assured-API/src/main/resources/excelfiles/Sogo_API.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF0264CD-FDEE-46EA-8242-232DC539CEB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC019397-611E-41D5-B034-8873EAD9366F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3150" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="279">
   <si>
     <t>Environment</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>serviceAPI/service/getSurveyURL</t>
-  </si>
-  <si>
-    <t>10102e31-b69e-4f66-a511-3d21f2241f09</t>
   </si>
   <si>
     <t>headerList</t>
@@ -1485,12 +1482,6 @@
     <t>Would you like to revisit your response?</t>
   </si>
   <si>
-    <t>Automation sendsurvey invite template</t>
-  </si>
-  <si>
-    <t>Automation sendsurvey reminder template</t>
-  </si>
-  <si>
     <t>surveyKeyURL</t>
   </si>
   <si>
@@ -1640,12 +1631,6 @@
     <t>numberOfContact</t>
   </si>
   <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Sat, 30 Jan 2021 08:57:06 GMT, Content-Length=168]</t>
-  </si>
-  <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Sat, 30 Jan 2021 10:01:47 GMT, Content-Length=169]</t>
-  </si>
-  <si>
     <t>API_TC53</t>
   </si>
   <si>
@@ -1656,6 +1641,1030 @@
   </si>
   <si>
     <t>Update</t>
+  </si>
+  <si>
+    <t>API_TC54</t>
+  </si>
+  <si>
+    <t>updateContactList() API - Insert Unique email address in contact list by using upsert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Assertion error occured : Survye URL received in API is wrong expected [https://www.sogosurvey.com/poll/PQP.aspx?pollKey=PTYw808FE%2fDaaPnVjCte%2fg%3d%3d] but found [https://survey.sogosurvey.com/r/AzfvDW]</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Participation status received for email address kabirtest19@bluwberry.com is wrong {
+    "Data": "{\"Table\":[{\"OverAllStatus\":\"Bounced&lt;br&gt;(Unknown host)\"}]}",
+    "Status": "Success"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Status": "Success",
+    "Description": "2"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Status": "Error",
+    "Description": "Survey Expired"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not able to find element Main Folder on page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sogo Account not present on page.</t>
+  </si>
+  <si>
+    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Thu, 04 Feb 2021 07:55:59 GMT, Content-Length=155]</t>
+  </si>
+  <si>
+    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Thu, 04 Feb 2021 07:57:59 GMT, Content-Length=164]</t>
+  </si>
+  <si>
+    <t>Send Reminder Via API</t>
+  </si>
+  <si>
+    <t>Survey Invite via API</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Expected mail with subject Send Reminder Via API is not received.</t>
+  </si>
+  <si>
+    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Mon, 08 Feb 2021 14:50:43 GMT, Content-Length=155]</t>
+  </si>
+  <si>
+    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Mon, 08 Feb 2021 14:59:47 GMT, Content-Length=155]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error received in API response : {
+    "Status": "Error",
+    "Description": "Invalid Token"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "Data": {
+        "Questions": [
+            {
+                "QuestionNum": "1",
+                "QuestionText": "Please provide your email address.",
+                "AnswerOption": [
+                    null
+                ]
+            },
+            {
+                "QuestionNum": "2",
+                "QuestionText": "How are you feeling?",
+                "AnswerOption": [
+                    "Unwell",
+                    "Okay",
+                    "Good"
+                ]
+            },
+            {
+                "QuestionNum": "3(a)",
+                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Bluish lips or face",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "3(b)",
+                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Chest pain",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "3(c)",
+                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Difficulty breathing",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "3(d)",
+                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Dizziness or disorientation",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "3(e)",
+                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Seizures",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "3(f)",
+                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Other",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "4",
+                "QuestionText": "Please specify.",
+                "AnswerOption": [
+                    null
+                ]
+            },
+            {
+                "QuestionNum": "5(a)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Fever or chills",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(b)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Cough",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(c)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Shortness of breath",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(d)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Fatigue",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(e)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Muscle aches",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(f)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Headache",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(g)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | New loss of taste or smell",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(h)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Sore throat",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(i)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Congestion or runny nose",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(j)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Nausea or vomiting",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(k)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Diarrhea",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(l)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Other",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "6",
+                "QuestionText": "Please specify.",
+                "AnswerOption": [
+                    null
+                ]
+            },
+            {
+                "QuestionNum": "7",
+                "QuestionText": "Within the past two weeks, have you had contact with anyone diagnosed with COVID-19?",
+                "AnswerOption": [
+                    "Yes",
+                    "No",
+                    "I don't know"
+                ]
+            },
+            {
+                "QuestionNum": "8",
+                "QuestionText": "Please explain.",
+                "AnswerOption": [
+                    null
+                ]
+            }
+        ],
+        "Responses": [
+            {
+                "SrNO": "2",
+                "ResponseNum": "2",
+                "EmailID": "testsogo31@gmail.com",
+                "ParticipationStatus": "Completed",
+                "IPAddress": "103.216.71.84",
+                "StartTime": "12/27/2020 04:22 PM",
+                "EndTime": "12/27/2020 04:22 PM",
+                "AnswerSet": [
+                    {
+                        "QuestionNum": "1",
+                        "answer": "testsogo31@gmail.com"
+                    },
+                    {
+                        "QuestionNum": "2",
+                        "answer": "Unwell"
+                    },
+                    {
+                        "QuestionNum": "3(a)",
+                        "answer": "Yes"
+                    },
+                    {
+                        "QuestionNum": "3(b)",
+                        "answer": "Yes"
+                    },
+                    {
+                        "QuestionNum": "3(c)",
+                        "answer": "No"
+                    },
+                    {
+                        "QuestionNum": "3(d)",
+                        "answer": "No"
+                    },
+                    {
+                        "QuestionNum": "3(e)",
+                        "answer": "No"
+                    },
+                    {
+                        "QuestionNum": "3(f)",
+                        "answer": "No"
+                    },
+                    {
+                        "QuestionNum": "4",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(a)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(b)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(c)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(d)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(e)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(f)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(g)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(h)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(i)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(j)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(k)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(l)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "6",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "7",
+                        "answer": "No"
+                    },
+                    {
+                        "QuestionNum": "8",
+                        "answer": ""
+                    }
+                ]
+            },
+            {
+                "SrNO": "3",
+                "ResponseNum": "4",
+                "EmailID": "Public Access",
+                "ParticipationStatus": "Completed",
+                "IPAddress": "103.216.71.65",
+                "StartTime": "1/17/2021 01:57 PM",
+                "EndTime": "1/17/2021 01:57 PM",
+                "AnswerSet": [
+                    {
+                        "QuestionNum": "1",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "2",
+                        "answer": "Okay"
+                    },
+                    {
+                        "QuestionNum": "3(a)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(b)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(c)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(d)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(e)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(f)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "4",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(a)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(b)",
+                        "answer": "Yes"
+                    },
+                    {
+                        "QuestionNum": "5(c)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(d)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(e)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(f)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(g)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(h)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(i)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(j)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(k)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(l)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "6",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "7",
+                        "answer": "I don't know"
+                    },
+                    {
+                        "QuestionNum": "8",
+                        "answer": ""
+                    }
+                ]
+            }
+        ]
+    },
+    "Status": "Success"
+}</t>
+  </si>
+  <si>
+    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Fri, 12 Feb 2021 10:41:22 GMT, Content-Length=1180]</t>
+  </si>
+  <si>
+    <t>{
+    "Data": {
+        "Questions": [
+            {
+                "QuestionNum": "1",
+                "QuestionText": "Please provide your email address.",
+                "AnswerOption": [
+                    null
+                ]
+            },
+            {
+                "QuestionNum": "2",
+                "QuestionText": "How are you feeling?",
+                "AnswerOption": [
+                    "Unwell",
+                    "Okay",
+                    "Good"
+                ]
+            },
+            {
+                "QuestionNum": "3(a)",
+                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Bluish lips or face",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "3(b)",
+                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Chest pain",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "3(c)",
+                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Difficulty breathing",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "3(d)",
+                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Dizziness or disorientation",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "3(e)",
+                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Seizures",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "3(f)",
+                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Other",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "4",
+                "QuestionText": "Please specify.",
+                "AnswerOption": [
+                    null
+                ]
+            },
+            {
+                "QuestionNum": "5(a)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Fever or chills",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(b)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Cough",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(c)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Shortness of breath",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(d)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Fatigue",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(e)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Muscle aches",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(f)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Headache",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(g)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | New loss of taste or smell",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(h)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Sore throat",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(i)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Congestion or runny nose",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(j)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Nausea or vomiting",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(k)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Diarrhea",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "5(l)",
+                "QuestionText": "Are you currently experiencing any of the following symptoms? | Other",
+                "AnswerOption": [
+                    "Yes",
+                    "No"
+                ]
+            },
+            {
+                "QuestionNum": "6",
+                "QuestionText": "Please specify.",
+                "AnswerOption": [
+                    null
+                ]
+            },
+            {
+                "QuestionNum": "7",
+                "QuestionText": "Within the past two weeks, have you had contact with anyone diagnosed with COVID-19?",
+                "AnswerOption": [
+                    "Yes",
+                    "No",
+                    "I don't know"
+                ]
+            },
+            {
+                "QuestionNum": "8",
+                "QuestionText": "Please explain.",
+                "AnswerOption": [
+                    null
+                ]
+            }
+        ],
+        "Responses": [
+            {
+                "SrNO": "1",
+                "ResponseNum": "1",
+                "EmailID": "Anonymous",
+                "ParticipationStatus": "Completed",
+                "IPAddress": "Anonymous",
+                "StartTime": "12/28/2020 09:31 AM",
+                "EndTime": "12/28/2020 09:33 AM",
+                "AnswerSet": [
+                    {
+                        "QuestionNum": "1",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "2",
+                        "answer": "Okay"
+                    },
+                    {
+                        "QuestionNum": "3(a)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(b)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(c)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(d)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(e)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(f)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "4",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(a)",
+                        "answer": "Yes"
+                    },
+                    {
+                        "QuestionNum": "5(b)",
+                        "answer": "No"
+                    },
+                    {
+                        "QuestionNum": "5(c)",
+                        "answer": "Yes"
+                    },
+                    {
+                        "QuestionNum": "5(d)",
+                        "answer": "No"
+                    },
+                    {
+                        "QuestionNum": "5(e)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(f)",
+                        "answer": "Yes"
+                    },
+                    {
+                        "QuestionNum": "5(g)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(h)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(i)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(j)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(k)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(l)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "6",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "7",
+                        "answer": "No"
+                    },
+                    {
+                        "QuestionNum": "8",
+                        "answer": ""
+                    }
+                ]
+            },
+            {
+                "SrNO": "2",
+                "ResponseNum": "2",
+                "EmailID": "Anonymous",
+                "ParticipationStatus": "Completed",
+                "IPAddress": "Anonymous",
+                "StartTime": "12/28/2020 09:33 AM",
+                "EndTime": "12/28/2020 09:34 AM",
+                "AnswerSet": [
+                    {
+                        "QuestionNum": "1",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "2",
+                        "answer": "Unwell"
+                    },
+                    {
+                        "QuestionNum": "3(a)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(b)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(c)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(d)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(e)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(f)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "4",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(a)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(b)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(c)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(d)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(e)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(f)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(g)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(h)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(i)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(j)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(k)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(l)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "6",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "7",
+                        "answer": "Yes"
+                    },
+                    {
+                        "QuestionNum": "8",
+                        "answer": ""
+                    }
+                ]
+            },
+            {
+                "SrNO": "3",
+                "ResponseNum": "3",
+                "EmailID": "Anonymous",
+                "ParticipationStatus": "Completed",
+                "IPAddress": "Anonymous",
+                "StartTime": "12/28/2020 09:34 AM",
+                "EndTime": "12/28/2020 09:34 AM",
+                "AnswerSet": [
+                    {
+                        "QuestionNum": "1",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "2",
+                        "answer": "Unwell"
+                    },
+                    {
+                        "QuestionNum": "3(a)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(b)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(c)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(d)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(e)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "3(f)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "4",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(a)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(b)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(c)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(d)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(e)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(f)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(g)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(h)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(i)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(j)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(k)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "5(l)",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "6",
+                        "answer": ""
+                    },
+                    {
+                        "QuestionNum": "7",
+                        "answer": "I don't know"
+                    },
+                    {
+                        "QuestionNum": "8",
+                        "answer": ""
+                    }
+                ]
+            }
+        ]
+    },
+    "Status": "Success"
+}</t>
+  </si>
+  <si>
+    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Fri, 12 Feb 2021 10:43:05 GMT, Content-Length=1140]</t>
+  </si>
+  <si>
+    <t>486b4440-54b7-4651-b897-4c1146e67af3</t>
+  </si>
+  <si>
+    <t>The maximum length of cell contents (text) is 32,767 characters</t>
+  </si>
+  <si>
+    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Sat, 13 Mar 2021 14:28:09 GMT, Content-Length=21709]</t>
+  </si>
+  <si>
+    <t>{
+    "Status": "Success",
+    "Description": "Record(s) updated"
+}</t>
+  </si>
+  <si>
+    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Sat, 13 Mar 2021 14:32:10 GMT, Content-Length=168]</t>
   </si>
   <si>
     <t>{
@@ -1664,25 +2673,13 @@
 }</t>
   </si>
   <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Sat, 30 Jan 2021 10:31:40 GMT, Content-Length=166]</t>
-  </si>
-  <si>
-    <t>API_TC54</t>
-  </si>
-  <si>
-    <t>updateContactList() API - Insert Unique email address in contact list by using upsert.</t>
-  </si>
-  <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Sat, 30 Jan 2021 10:44:29 GMT, Content-Length=166]</t>
-  </si>
-  <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Sat, 30 Jan 2021 10:53:20 GMT, Content-Length=166]</t>
-  </si>
-  <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Sat, 30 Jan 2021 11:02:04 GMT, Content-Length=166]</t>
-  </si>
-  <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Sat, 30 Jan 2021 11:03:31 GMT, Content-Length=166]</t>
+    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Tue, 16 Mar 2021 15:09:32 GMT, Content-Length=166]</t>
+  </si>
+  <si>
+    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Tue, 16 Mar 2021 15:13:43 GMT, Content-Length=1140]</t>
+  </si>
+  <si>
+    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Tue, 16 Mar 2021 15:15:42 GMT, Content-Length=21709]</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +2687,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1787,74 +2784,26 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <u val="single"/>
+      <color indexed="12"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1912,7 +2861,7 @@
       <color indexed="12"/>
     </font>
   </fonts>
-  <fills count="57">
+  <fills count="54">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1937,7 +2886,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -1966,7 +2920,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -1976,7 +2930,27 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -1986,37 +2960,7 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
+      <patternFill patternType="none">
         <fgColor indexed="10"/>
       </patternFill>
     </fill>
@@ -2026,23 +2970,13 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+      <patternFill patternType="none">
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -2237,7 +3171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -2255,50 +3189,43 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="44" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="48" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="50" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="56" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2628,10 +3555,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -2693,8 +3620,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,7 +3661,7 @@
         <v>28</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -2769,8 +3696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC465A38-8D91-4E24-8C36-7B43119C878B}">
   <dimension ref="A1:AO55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,88 +3758,88 @@
         <v>29</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O1" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z1" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="AA1" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AB1" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC1" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD1" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AE1" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF1" s="9" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="AG1" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AH1" s="9" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AI1" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="AJ1" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="AK1" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AN1" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>252</v>
       </c>
       <c r="AO1" s="3" t="s">
         <v>33</v>
@@ -2920,7 +3847,7 @@
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2935,25 +3862,29 @@
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="J2" s="35" t="s">
-        <v>175</v>
+        <v>146</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4">
         <v>277</v>
@@ -2989,7 +3920,7 @@
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -3004,25 +3935,29 @@
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="J3" s="26" t="s">
-        <v>175</v>
+        <v>145</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L3" s="8"/>
-      <c r="M3" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4">
         <v>5</v>
@@ -3058,7 +3993,7 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -3073,25 +4008,29 @@
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="J4" s="26" t="s">
-        <v>175</v>
+        <v>147</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L4" s="8"/>
-      <c r="M4" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4">
         <v>87</v>
@@ -3127,7 +4066,7 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -3142,26 +4081,32 @@
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>181</v>
+        <v>148</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="O5" s="4">
         <v>6</v>
       </c>
@@ -3196,7 +4141,7 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -3211,25 +4156,29 @@
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>175</v>
+        <v>149</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4">
         <v>267</v>
@@ -3265,7 +4214,7 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -3280,25 +4229,29 @@
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>175</v>
+        <v>150</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4">
         <v>133</v>
@@ -3334,7 +4287,7 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -3349,25 +4302,29 @@
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>175</v>
+        <v>151</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4">
         <v>146</v>
@@ -3403,7 +4360,7 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -3418,25 +4375,29 @@
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>175</v>
+        <v>152</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4">
         <v>162</v>
@@ -3472,7 +4433,7 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>3</v>
@@ -3487,29 +4448,35 @@
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="28" t="s">
+      <c r="J10" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L10" s="8"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="L10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>257</v>
+      </c>
       <c r="O10" s="4">
         <v>377</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -3522,16 +4489,16 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB10" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="AB10" s="14" t="s">
-        <v>199</v>
-      </c>
       <c r="AC10" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD10" s="14" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
@@ -3544,12 +4511,12 @@
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
       <c r="AO10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>3</v>
@@ -3564,29 +4531,33 @@
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="28" t="s">
+      <c r="J11" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="4"/>
+      <c r="L11" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4">
         <v>378</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -3599,16 +4570,16 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB11" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="AB11" s="14" t="s">
-        <v>199</v>
-      </c>
       <c r="AC11" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD11" s="14" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
@@ -3621,12 +4592,12 @@
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
       <c r="AO11" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>3</v>
@@ -3641,29 +4612,35 @@
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="28" t="s">
-        <v>175</v>
+      <c r="J12" s="17" t="s">
+        <v>180</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>256</v>
+      </c>
       <c r="O12" s="4">
         <v>379</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -3676,16 +4653,16 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB12" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="AB12" s="14" t="s">
-        <v>199</v>
-      </c>
       <c r="AC12" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD12" s="14" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
@@ -3698,12 +4675,12 @@
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
       <c r="AO12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>3</v>
@@ -3718,23 +4695,27 @@
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="K13" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="4"/>
+      <c r="L13" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>259</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4">
         <v>321</v>
@@ -3767,12 +4748,12 @@
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
       <c r="AO13" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>3</v>
@@ -3787,29 +4768,33 @@
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="30" t="s">
-        <v>175</v>
+      <c r="J14" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L14" s="8"/>
-      <c r="M14" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4">
         <v>377</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -3824,16 +4809,16 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB14" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="AB14" s="14" t="s">
-        <v>199</v>
-      </c>
       <c r="AC14" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD14" s="14" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
@@ -3846,12 +4831,12 @@
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>3</v>
@@ -3866,29 +4851,33 @@
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="30" t="s">
-        <v>175</v>
+      <c r="J15" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L15" s="8"/>
-      <c r="M15" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4">
         <v>378</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -3903,16 +4892,16 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB15" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="AB15" s="14" t="s">
-        <v>199</v>
-      </c>
       <c r="AC15" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD15" s="14" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
@@ -3925,12 +4914,12 @@
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
       <c r="AO15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>3</v>
@@ -3945,29 +4934,33 @@
         <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="30" t="s">
-        <v>175</v>
+      <c r="J16" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L16" s="8"/>
-      <c r="M16" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4">
         <v>379</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -3982,16 +4975,16 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB16" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="AB16" s="14" t="s">
-        <v>199</v>
-      </c>
       <c r="AC16" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD16" s="14" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
@@ -4004,12 +4997,12 @@
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
       <c r="AO16" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>3</v>
@@ -4024,23 +5017,27 @@
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="31" t="s">
-        <v>175</v>
+      <c r="J17" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4">
         <v>321</v>
@@ -4075,12 +5072,12 @@
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
       <c r="AO17" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>3</v>
@@ -4095,24 +5092,30 @@
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="34" t="s">
-        <v>181</v>
+      <c r="J18" s="20" t="s">
+        <v>174</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
+        <v>175</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>262</v>
+      </c>
       <c r="O18" s="4">
         <v>377</v>
       </c>
@@ -4128,16 +5131,16 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB18" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="AB18" s="14" t="s">
-        <v>199</v>
-      </c>
       <c r="AC18" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
@@ -4150,12 +5153,12 @@
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
       <c r="AO18" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>3</v>
@@ -4170,23 +5173,27 @@
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="33" t="s">
-        <v>181</v>
+      <c r="J19" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="L19" s="8"/>
-      <c r="M19" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4">
         <v>378</v>
@@ -4203,16 +5210,16 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB19" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="AB19" s="14" t="s">
-        <v>199</v>
-      </c>
       <c r="AC19" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>
@@ -4225,12 +5232,12 @@
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
       <c r="AO19" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>3</v>
@@ -4245,23 +5252,27 @@
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="33" t="s">
-        <v>181</v>
+      <c r="J20" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4">
         <v>379</v>
@@ -4278,16 +5289,16 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB20" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="AB20" s="14" t="s">
-        <v>199</v>
-      </c>
       <c r="AC20" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD20" s="11" t="s">
-        <v>205</v>
+        <v>260</v>
       </c>
       <c r="AE20" s="11"/>
       <c r="AF20" s="11"/>
@@ -4300,12 +5311,12 @@
       <c r="AM20" s="11"/>
       <c r="AN20" s="11"/>
       <c r="AO20" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>3</v>
@@ -4320,23 +5331,27 @@
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="32" t="s">
-        <v>175</v>
+      <c r="J21" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L21" s="8"/>
-      <c r="M21" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4">
         <v>321</v>
@@ -4369,12 +5384,12 @@
       <c r="AM21" s="11"/>
       <c r="AN21" s="11"/>
       <c r="AO21" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
@@ -4389,29 +5404,33 @@
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="20" t="s">
-        <v>175</v>
+      <c r="J22" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L22" s="8"/>
-      <c r="M22" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4">
         <v>377</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>3</v>
@@ -4424,10 +5443,10 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y22" s="4">
         <v>7</v>
@@ -4448,12 +5467,12 @@
       <c r="AM22" s="11"/>
       <c r="AN22" s="11"/>
       <c r="AO22" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>3</v>
@@ -4468,29 +5487,33 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="20" t="s">
-        <v>175</v>
+      <c r="J23" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4">
         <v>378</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>3</v>
@@ -4503,10 +5526,10 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y23" s="4">
         <v>7</v>
@@ -4527,12 +5550,12 @@
       <c r="AM23" s="11"/>
       <c r="AN23" s="11"/>
       <c r="AO23" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>3</v>
@@ -4547,29 +5570,33 @@
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="20" t="s">
-        <v>175</v>
+      <c r="J24" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L24" s="8"/>
-      <c r="M24" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4">
         <v>379</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>3</v>
@@ -4582,10 +5609,10 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y24" s="4">
         <v>7</v>
@@ -4606,12 +5633,12 @@
       <c r="AM24" s="11"/>
       <c r="AN24" s="11"/>
       <c r="AO24" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>3</v>
@@ -4626,29 +5653,33 @@
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="20" t="s">
-        <v>175</v>
+      <c r="J25" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L25" s="8"/>
-      <c r="M25" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4">
         <v>321</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>23</v>
@@ -4661,10 +5692,10 @@
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y25" s="4">
         <v>7</v>
@@ -4685,12 +5716,12 @@
       <c r="AM25" s="11"/>
       <c r="AN25" s="11"/>
       <c r="AO25" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>3</v>
@@ -4705,29 +5736,33 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="20" t="s">
-        <v>175</v>
+      <c r="J26" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4">
         <v>377</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>3</v>
@@ -4740,10 +5775,10 @@
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Y26" s="4">
         <v>7</v>
@@ -4764,12 +5799,12 @@
       <c r="AM26" s="11"/>
       <c r="AN26" s="11"/>
       <c r="AO26" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>3</v>
@@ -4784,23 +5819,27 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I27" s="5"/>
-      <c r="J27" s="21" t="s">
-        <v>175</v>
+      <c r="J27" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4">
         <v>380</v>
@@ -4822,19 +5861,19 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AA27" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AB27" s="14" t="s">
         <v>198</v>
       </c>
-      <c r="AB27" s="14" t="s">
-        <v>199</v>
-      </c>
       <c r="AC27" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AD27" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
@@ -4847,12 +5886,12 @@
       <c r="AM27" s="12"/>
       <c r="AN27" s="12"/>
       <c r="AO27" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>3</v>
@@ -4867,23 +5906,27 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="21" t="s">
-        <v>175</v>
+      <c r="J28" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4">
         <v>380</v>
@@ -4905,11 +5948,11 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AA28" s="4"/>
       <c r="AB28" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
@@ -4924,12 +5967,12 @@
       <c r="AM28" s="12"/>
       <c r="AN28" s="12"/>
       <c r="AO28" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>3</v>
@@ -4944,23 +5987,27 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I29" s="5"/>
-      <c r="J29" s="22" t="s">
-        <v>181</v>
+      <c r="J29" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4">
         <v>380</v>
@@ -4982,19 +6029,19 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="AA29" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB29" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC29" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="AB29" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC29" s="13" t="s">
-        <v>201</v>
-      </c>
       <c r="AD29" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AE29" s="12"/>
       <c r="AF29" s="12"/>
@@ -5007,12 +6054,12 @@
       <c r="AM29" s="12"/>
       <c r="AN29" s="12"/>
       <c r="AO29" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>3</v>
@@ -5027,23 +6074,27 @@
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="21" t="s">
-        <v>175</v>
+      <c r="J30" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4">
         <v>380</v>
@@ -5065,11 +6116,11 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AA30" s="4"/>
       <c r="AB30" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AC30" s="13"/>
       <c r="AD30" s="13"/>
@@ -5084,12 +6135,12 @@
       <c r="AM30" s="12"/>
       <c r="AN30" s="12"/>
       <c r="AO30" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>3</v>
@@ -5104,23 +6155,27 @@
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="21" t="s">
-        <v>175</v>
+      <c r="J31" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L31" s="8"/>
-      <c r="M31" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4">
         <v>380</v>
@@ -5142,11 +6197,11 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AA31" s="4"/>
       <c r="AB31" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC31" s="13"/>
       <c r="AD31" s="13"/>
@@ -5161,12 +6216,12 @@
       <c r="AM31" s="12"/>
       <c r="AN31" s="12"/>
       <c r="AO31" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>3</v>
@@ -5181,23 +6236,27 @@
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="21" t="s">
-        <v>175</v>
+      <c r="J32" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L32" s="8"/>
-      <c r="M32" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4">
         <v>380</v>
@@ -5219,11 +6278,11 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AA32" s="4"/>
       <c r="AB32" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC32" s="13"/>
       <c r="AD32" s="13"/>
@@ -5238,12 +6297,12 @@
       <c r="AM32" s="12"/>
       <c r="AN32" s="12"/>
       <c r="AO32" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>3</v>
@@ -5258,23 +6317,27 @@
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="21" t="s">
-        <v>175</v>
+      <c r="J33" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L33" s="8"/>
-      <c r="M33" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4">
         <v>380</v>
@@ -5298,7 +6361,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
@@ -5313,12 +6376,12 @@
       <c r="AM33" s="12"/>
       <c r="AN33" s="12"/>
       <c r="AO33" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>3</v>
@@ -5333,23 +6396,27 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I34" s="5"/>
-      <c r="J34" s="21" t="s">
-        <v>175</v>
+      <c r="J34" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L34" s="8"/>
-      <c r="M34" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4">
         <v>381</v>
@@ -5371,7 +6438,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC34" s="14"/>
       <c r="AD34" s="14"/>
@@ -5386,12 +6453,12 @@
       <c r="AM34" s="12"/>
       <c r="AN34" s="12"/>
       <c r="AO34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>3</v>
@@ -5406,23 +6473,27 @@
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I35" s="5"/>
-      <c r="J35" s="21" t="s">
-        <v>175</v>
+      <c r="J35" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L35" s="8"/>
-      <c r="M35" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4">
         <v>382</v>
@@ -5444,7 +6515,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC35" s="13"/>
       <c r="AD35" s="13"/>
@@ -5459,12 +6530,12 @@
       <c r="AM35" s="12"/>
       <c r="AN35" s="12"/>
       <c r="AO35" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>3</v>
@@ -5479,23 +6550,27 @@
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="5"/>
-      <c r="J36" s="15" t="s">
-        <v>175</v>
+      <c r="J36" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L36" s="8"/>
-      <c r="M36" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4">
         <v>380</v>
@@ -5513,7 +6588,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
       <c r="AB36" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC36" s="14"/>
       <c r="AD36" s="14"/>
@@ -5530,12 +6605,12 @@
       <c r="AM36" s="13"/>
       <c r="AN36" s="13"/>
       <c r="AO36" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>3</v>
@@ -5550,23 +6625,27 @@
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I37" s="5"/>
-      <c r="J37" s="15" t="s">
-        <v>175</v>
+      <c r="J37" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L37" s="8"/>
-      <c r="M37" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4">
         <v>380</v>
@@ -5584,7 +6663,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
@@ -5601,12 +6680,12 @@
       <c r="AM37" s="13"/>
       <c r="AN37" s="13"/>
       <c r="AO37" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>3</v>
@@ -5621,23 +6700,27 @@
         <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I38" s="5"/>
-      <c r="J38" s="19" t="s">
-        <v>175</v>
+      <c r="J38" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L38" s="8"/>
-      <c r="M38" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4">
         <v>380</v>
@@ -5655,7 +6738,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC38" s="14"/>
       <c r="AD38" s="14"/>
@@ -5672,12 +6755,12 @@
       <c r="AM38" s="13"/>
       <c r="AN38" s="13"/>
       <c r="AO38" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>3</v>
@@ -5692,23 +6775,27 @@
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="15" t="s">
-        <v>175</v>
+      <c r="J39" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L39" s="8"/>
-      <c r="M39" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4">
         <v>380</v>
@@ -5726,7 +6813,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC39" s="14"/>
       <c r="AD39" s="14"/>
@@ -5743,12 +6830,12 @@
       <c r="AM39" s="13"/>
       <c r="AN39" s="13"/>
       <c r="AO39" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>3</v>
@@ -5763,23 +6850,27 @@
         <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I40" s="5"/>
-      <c r="J40" s="15" t="s">
-        <v>175</v>
+      <c r="J40" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L40" s="8"/>
-      <c r="M40" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4">
         <v>380</v>
@@ -5797,7 +6888,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
       <c r="AB40" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC40" s="14"/>
       <c r="AD40" s="14"/>
@@ -5814,12 +6905,12 @@
       <c r="AM40" s="13"/>
       <c r="AN40" s="13"/>
       <c r="AO40" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>3</v>
@@ -5834,23 +6925,27 @@
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I41" s="5"/>
-      <c r="J41" s="15" t="s">
-        <v>175</v>
+      <c r="J41" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L41" s="8"/>
-      <c r="M41" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M41" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4">
         <v>380</v>
@@ -5868,7 +6963,7 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
       <c r="AB41" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC41" s="14"/>
       <c r="AD41" s="14"/>
@@ -5885,12 +6980,12 @@
       <c r="AM41" s="13"/>
       <c r="AN41" s="13"/>
       <c r="AO41" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>3</v>
@@ -5905,23 +7000,27 @@
         <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="15" t="s">
-        <v>175</v>
+      <c r="J42" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L42" s="8"/>
-      <c r="M42" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M42" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4">
         <v>380</v>
@@ -5939,7 +7038,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
       <c r="AB42" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AC42" s="14"/>
       <c r="AD42" s="14"/>
@@ -5956,12 +7055,12 @@
       <c r="AM42" s="13"/>
       <c r="AN42" s="13"/>
       <c r="AO42" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>3</v>
@@ -5976,23 +7075,27 @@
         <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="15" t="s">
-        <v>175</v>
+      <c r="J43" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L43" s="8"/>
-      <c r="M43" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M43" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4">
         <v>380</v>
@@ -6010,7 +7113,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
       <c r="AB43" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC43" s="14"/>
       <c r="AD43" s="14"/>
@@ -6027,12 +7130,12 @@
       <c r="AM43" s="13"/>
       <c r="AN43" s="13"/>
       <c r="AO43" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>3</v>
@@ -6047,24 +7150,30 @@
         <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I44" s="5"/>
-      <c r="J44" s="15" t="s">
-        <v>175</v>
+      <c r="J44" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L44" s="8"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="O44" s="4">
         <v>380</v>
       </c>
@@ -6081,7 +7190,7 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
       <c r="AB44" s="14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC44" s="14"/>
       <c r="AD44" s="14"/>
@@ -6098,12 +7207,12 @@
       <c r="AM44" s="13"/>
       <c r="AN44" s="13"/>
       <c r="AO44" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>3</v>
@@ -6118,23 +7227,27 @@
         <v>7</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I45" s="5"/>
-      <c r="J45" s="15" t="s">
-        <v>175</v>
+      <c r="J45" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L45" s="8"/>
-      <c r="M45" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4">
         <v>380</v>
@@ -6152,7 +7265,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
       <c r="AB45" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AC45" s="14"/>
       <c r="AD45" s="14"/>
@@ -6169,12 +7282,12 @@
       <c r="AM45" s="13"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>3</v>
@@ -6189,23 +7302,27 @@
         <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I46" s="5"/>
-      <c r="J46" s="15" t="s">
-        <v>175</v>
+      <c r="J46" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L46" s="8"/>
-      <c r="M46" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4">
         <v>381</v>
@@ -6223,7 +7340,7 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
       <c r="AB46" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC46" s="14"/>
       <c r="AD46" s="14"/>
@@ -6240,12 +7357,12 @@
       <c r="AM46" s="13"/>
       <c r="AN46" s="13"/>
       <c r="AO46" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>3</v>
@@ -6260,23 +7377,27 @@
         <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I47" s="5"/>
       <c r="J47" s="18" t="s">
-        <v>175</v>
+        <v>252</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L47" s="8"/>
-      <c r="M47" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4">
         <v>382</v>
@@ -6294,7 +7415,7 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
       <c r="AB47" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AC47" s="14"/>
       <c r="AD47" s="14"/>
@@ -6311,12 +7432,12 @@
       <c r="AM47" s="13"/>
       <c r="AN47" s="13"/>
       <c r="AO47" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>3</v>
@@ -6331,23 +7452,27 @@
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I48" s="5"/>
-      <c r="J48" s="17" t="s">
-        <v>175</v>
+      <c r="J48" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L48" s="8"/>
-      <c r="M48" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
@@ -6367,7 +7492,7 @@
       <c r="AD48" s="14"/>
       <c r="AE48" s="13"/>
       <c r="AF48" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG48" s="13"/>
       <c r="AH48" s="13"/>
@@ -6378,12 +7503,12 @@
       <c r="AM48" s="13"/>
       <c r="AN48" s="13"/>
       <c r="AO48" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>3</v>
@@ -6398,29 +7523,35 @@
         <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="I49" s="5"/>
-      <c r="J49" s="23" t="s">
+      <c r="J49" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="K49" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="K49" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L49" s="8"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
+      <c r="L49" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="O49" s="4">
         <v>377</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
@@ -6451,12 +7582,12 @@
       <c r="AM49" s="13"/>
       <c r="AN49" s="13"/>
       <c r="AO49" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>3</v>
@@ -6471,29 +7602,33 @@
         <v>7</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="24" t="s">
+      <c r="J50" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="K50" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="K50" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L50" s="8"/>
-      <c r="M50" s="4"/>
+      <c r="L50" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4">
         <v>381</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4" t="s">
@@ -6526,12 +7661,12 @@
       <c r="AM50" s="13"/>
       <c r="AN50" s="13"/>
       <c r="AO50" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>3</v>
@@ -6546,29 +7681,35 @@
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I51" s="5"/>
-      <c r="J51" s="25" t="s">
-        <v>175</v>
+      <c r="J51" s="49" t="s">
+        <v>180</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L51" s="8"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="M51" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>265</v>
+      </c>
       <c r="O51" s="4">
         <v>399</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="Q51" s="4"/>
       <c r="R51" s="4" t="s">
@@ -6601,12 +7742,12 @@
       <c r="AM51" s="13"/>
       <c r="AN51" s="13"/>
       <c r="AO51" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>3</v>
@@ -6621,31 +7762,33 @@
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I52" s="5"/>
-      <c r="J52" s="36" t="s">
+      <c r="J52" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="K52" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="K52" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L52" s="8"/>
+      <c r="L52" s="8" t="s">
+        <v>273</v>
+      </c>
       <c r="M52" s="4" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4">
         <v>377</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
@@ -6659,7 +7802,7 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
       <c r="AB52" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AC52" s="14"/>
       <c r="AD52" s="14"/>
@@ -6668,7 +7811,7 @@
       <c r="AG52" s="13"/>
       <c r="AH52" s="13"/>
       <c r="AI52" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AJ52" s="13">
         <v>2</v>
@@ -6678,16 +7821,16 @@
         <v>0</v>
       </c>
       <c r="AM52" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AN52" s="13"/>
       <c r="AO52" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>3</v>
@@ -6702,31 +7845,33 @@
         <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I53" s="5"/>
-      <c r="J53" s="37" t="s">
-        <v>175</v>
+      <c r="J53" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L53" s="8"/>
+        <v>181</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="M53" s="4" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4">
         <v>377</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
@@ -6747,7 +7892,7 @@
       <c r="AG53" s="13"/>
       <c r="AH53" s="13"/>
       <c r="AI53" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AJ53" s="13">
         <v>1</v>
@@ -6759,16 +7904,16 @@
         <v>0</v>
       </c>
       <c r="AM53" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AN53" s="13"/>
       <c r="AO53" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>3</v>
@@ -6783,33 +7928,33 @@
         <v>7</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="I54" s="5"/>
-      <c r="J54" s="55" t="s">
-        <v>175</v>
+      <c r="J54" s="18" t="s">
+        <v>252</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>254</v>
+        <v>181</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="4">
         <v>377</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
@@ -6823,7 +7968,7 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
       <c r="AB54" s="14" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="AC54" s="14"/>
       <c r="AD54" s="14"/>
@@ -6832,7 +7977,7 @@
       <c r="AG54" s="13"/>
       <c r="AH54" s="13"/>
       <c r="AI54" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AJ54" s="13">
         <v>3</v>
@@ -6842,18 +7987,18 @@
         <v>0</v>
       </c>
       <c r="AM54" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AN54" s="13" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AO54" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>3</v>
@@ -6868,33 +8013,33 @@
         <v>7</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="I55" s="5"/>
-      <c r="J55" s="39" t="s">
+      <c r="J55" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="K55" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="K55" s="6" t="s">
-        <v>176</v>
-      </c>
       <c r="L55" s="8" t="s">
-        <v>254</v>
+        <v>275</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="N55" s="4"/>
       <c r="O55" s="4">
         <v>377</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
@@ -6915,7 +8060,7 @@
       <c r="AG55" s="13"/>
       <c r="AH55" s="13"/>
       <c r="AI55" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AJ55" s="13">
         <v>3</v>
@@ -6927,11 +8072,11 @@
         <v>0</v>
       </c>
       <c r="AM55" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AN55" s="13"/>
       <c r="AO55" s="4" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/Engage/Rest-Assured-API/src/main/resources/excelfiles/Sogo_API.xlsx
+++ b/Engage/Rest-Assured-API/src/main/resources/excelfiles/Sogo_API.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC019397-611E-41D5-B034-8873EAD9366F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C05796C-98B0-4C02-AEA7-FE75389F09BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3150" yWindow="3045" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="261">
   <si>
     <t>Environment</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Lead</t>
   </si>
   <si>
-    <t>Nadeem</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -1372,12 +1369,6 @@
     <t>145184,92,Bugg in branching,145184,false,false,true,true,false,4,2,2,1,3</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>BETA</t>
   </si>
   <si>
@@ -1388,9 +1379,6 @@
   </si>
   <si>
     <t>https://survey.sogosurvey.com/r/XfytnQ</t>
-  </si>
-  <si>
-    <t>FAIL</t>
   </si>
   <si>
     <t>--</t>
@@ -1661,30 +1649,12 @@
 }</t>
   </si>
   <si>
-    <t>{
-    "Status": "Success",
-    "Description": "2"
-}</t>
-  </si>
-  <si>
-    <t>{
-    "Status": "Error",
-    "Description": "Survey Expired"
-}</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Not able to find element Main Folder on page.</t>
   </si>
   <si>
     <t xml:space="preserve"> Sogo Account not present on page.</t>
   </si>
   <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Thu, 04 Feb 2021 07:55:59 GMT, Content-Length=155]</t>
-  </si>
-  <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Thu, 04 Feb 2021 07:57:59 GMT, Content-Length=164]</t>
-  </si>
-  <si>
     <t>Send Reminder Via API</t>
   </si>
   <si>
@@ -1692,12 +1662,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Expected mail with subject Send Reminder Via API is not received.</t>
-  </si>
-  <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Mon, 08 Feb 2021 14:50:43 GMT, Content-Length=155]</t>
-  </si>
-  <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Mon, 08 Feb 2021 14:59:47 GMT, Content-Length=155]</t>
   </si>
   <si>
     <t xml:space="preserve"> Error received in API response : {
@@ -1706,988 +1670,26 @@
 }</t>
   </si>
   <si>
-    <t>{
-    "Data": {
-        "Questions": [
-            {
-                "QuestionNum": "1",
-                "QuestionText": "Please provide your email address.",
-                "AnswerOption": [
-                    null
-                ]
-            },
-            {
-                "QuestionNum": "2",
-                "QuestionText": "How are you feeling?",
-                "AnswerOption": [
-                    "Unwell",
-                    "Okay",
-                    "Good"
-                ]
-            },
-            {
-                "QuestionNum": "3(a)",
-                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Bluish lips or face",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "3(b)",
-                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Chest pain",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "3(c)",
-                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Difficulty breathing",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "3(d)",
-                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Dizziness or disorientation",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "3(e)",
-                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Seizures",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "3(f)",
-                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Other",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "4",
-                "QuestionText": "Please specify.",
-                "AnswerOption": [
-                    null
-                ]
-            },
-            {
-                "QuestionNum": "5(a)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Fever or chills",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(b)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Cough",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(c)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Shortness of breath",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(d)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Fatigue",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(e)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Muscle aches",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(f)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Headache",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(g)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | New loss of taste or smell",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(h)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Sore throat",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(i)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Congestion or runny nose",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(j)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Nausea or vomiting",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(k)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Diarrhea",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(l)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Other",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "6",
-                "QuestionText": "Please specify.",
-                "AnswerOption": [
-                    null
-                ]
-            },
-            {
-                "QuestionNum": "7",
-                "QuestionText": "Within the past two weeks, have you had contact with anyone diagnosed with COVID-19?",
-                "AnswerOption": [
-                    "Yes",
-                    "No",
-                    "I don't know"
-                ]
-            },
-            {
-                "QuestionNum": "8",
-                "QuestionText": "Please explain.",
-                "AnswerOption": [
-                    null
-                ]
-            }
-        ],
-        "Responses": [
-            {
-                "SrNO": "2",
-                "ResponseNum": "2",
-                "EmailID": "testsogo31@gmail.com",
-                "ParticipationStatus": "Completed",
-                "IPAddress": "103.216.71.84",
-                "StartTime": "12/27/2020 04:22 PM",
-                "EndTime": "12/27/2020 04:22 PM",
-                "AnswerSet": [
-                    {
-                        "QuestionNum": "1",
-                        "answer": "testsogo31@gmail.com"
-                    },
-                    {
-                        "QuestionNum": "2",
-                        "answer": "Unwell"
-                    },
-                    {
-                        "QuestionNum": "3(a)",
-                        "answer": "Yes"
-                    },
-                    {
-                        "QuestionNum": "3(b)",
-                        "answer": "Yes"
-                    },
-                    {
-                        "QuestionNum": "3(c)",
-                        "answer": "No"
-                    },
-                    {
-                        "QuestionNum": "3(d)",
-                        "answer": "No"
-                    },
-                    {
-                        "QuestionNum": "3(e)",
-                        "answer": "No"
-                    },
-                    {
-                        "QuestionNum": "3(f)",
-                        "answer": "No"
-                    },
-                    {
-                        "QuestionNum": "4",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(a)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(b)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(c)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(d)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(e)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(f)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(g)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(h)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(i)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(j)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(k)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(l)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "6",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "7",
-                        "answer": "No"
-                    },
-                    {
-                        "QuestionNum": "8",
-                        "answer": ""
-                    }
-                ]
-            },
-            {
-                "SrNO": "3",
-                "ResponseNum": "4",
-                "EmailID": "Public Access",
-                "ParticipationStatus": "Completed",
-                "IPAddress": "103.216.71.65",
-                "StartTime": "1/17/2021 01:57 PM",
-                "EndTime": "1/17/2021 01:57 PM",
-                "AnswerSet": [
-                    {
-                        "QuestionNum": "1",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "2",
-                        "answer": "Okay"
-                    },
-                    {
-                        "QuestionNum": "3(a)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(b)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(c)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(d)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(e)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(f)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "4",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(a)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(b)",
-                        "answer": "Yes"
-                    },
-                    {
-                        "QuestionNum": "5(c)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(d)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(e)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(f)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(g)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(h)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(i)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(j)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(k)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(l)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "6",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "7",
-                        "answer": "I don't know"
-                    },
-                    {
-                        "QuestionNum": "8",
-                        "answer": ""
-                    }
-                ]
-            }
-        ]
-    },
-    "Status": "Success"
-}</t>
-  </si>
-  <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Fri, 12 Feb 2021 10:41:22 GMT, Content-Length=1180]</t>
-  </si>
-  <si>
-    <t>{
-    "Data": {
-        "Questions": [
-            {
-                "QuestionNum": "1",
-                "QuestionText": "Please provide your email address.",
-                "AnswerOption": [
-                    null
-                ]
-            },
-            {
-                "QuestionNum": "2",
-                "QuestionText": "How are you feeling?",
-                "AnswerOption": [
-                    "Unwell",
-                    "Okay",
-                    "Good"
-                ]
-            },
-            {
-                "QuestionNum": "3(a)",
-                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Bluish lips or face",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "3(b)",
-                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Chest pain",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "3(c)",
-                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Difficulty breathing",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "3(d)",
-                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Dizziness or disorientation",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "3(e)",
-                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Seizures",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "3(f)",
-                "QuestionText": "Have you been experiencing any of the following severe symptoms? | Other",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "4",
-                "QuestionText": "Please specify.",
-                "AnswerOption": [
-                    null
-                ]
-            },
-            {
-                "QuestionNum": "5(a)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Fever or chills",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(b)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Cough",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(c)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Shortness of breath",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(d)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Fatigue",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(e)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Muscle aches",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(f)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Headache",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(g)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | New loss of taste or smell",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(h)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Sore throat",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(i)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Congestion or runny nose",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(j)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Nausea or vomiting",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(k)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Diarrhea",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "5(l)",
-                "QuestionText": "Are you currently experiencing any of the following symptoms? | Other",
-                "AnswerOption": [
-                    "Yes",
-                    "No"
-                ]
-            },
-            {
-                "QuestionNum": "6",
-                "QuestionText": "Please specify.",
-                "AnswerOption": [
-                    null
-                ]
-            },
-            {
-                "QuestionNum": "7",
-                "QuestionText": "Within the past two weeks, have you had contact with anyone diagnosed with COVID-19?",
-                "AnswerOption": [
-                    "Yes",
-                    "No",
-                    "I don't know"
-                ]
-            },
-            {
-                "QuestionNum": "8",
-                "QuestionText": "Please explain.",
-                "AnswerOption": [
-                    null
-                ]
-            }
-        ],
-        "Responses": [
-            {
-                "SrNO": "1",
-                "ResponseNum": "1",
-                "EmailID": "Anonymous",
-                "ParticipationStatus": "Completed",
-                "IPAddress": "Anonymous",
-                "StartTime": "12/28/2020 09:31 AM",
-                "EndTime": "12/28/2020 09:33 AM",
-                "AnswerSet": [
-                    {
-                        "QuestionNum": "1",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "2",
-                        "answer": "Okay"
-                    },
-                    {
-                        "QuestionNum": "3(a)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(b)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(c)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(d)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(e)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(f)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "4",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(a)",
-                        "answer": "Yes"
-                    },
-                    {
-                        "QuestionNum": "5(b)",
-                        "answer": "No"
-                    },
-                    {
-                        "QuestionNum": "5(c)",
-                        "answer": "Yes"
-                    },
-                    {
-                        "QuestionNum": "5(d)",
-                        "answer": "No"
-                    },
-                    {
-                        "QuestionNum": "5(e)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(f)",
-                        "answer": "Yes"
-                    },
-                    {
-                        "QuestionNum": "5(g)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(h)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(i)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(j)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(k)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(l)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "6",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "7",
-                        "answer": "No"
-                    },
-                    {
-                        "QuestionNum": "8",
-                        "answer": ""
-                    }
-                ]
-            },
-            {
-                "SrNO": "2",
-                "ResponseNum": "2",
-                "EmailID": "Anonymous",
-                "ParticipationStatus": "Completed",
-                "IPAddress": "Anonymous",
-                "StartTime": "12/28/2020 09:33 AM",
-                "EndTime": "12/28/2020 09:34 AM",
-                "AnswerSet": [
-                    {
-                        "QuestionNum": "1",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "2",
-                        "answer": "Unwell"
-                    },
-                    {
-                        "QuestionNum": "3(a)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(b)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(c)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(d)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(e)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(f)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "4",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(a)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(b)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(c)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(d)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(e)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(f)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(g)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(h)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(i)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(j)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(k)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(l)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "6",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "7",
-                        "answer": "Yes"
-                    },
-                    {
-                        "QuestionNum": "8",
-                        "answer": ""
-                    }
-                ]
-            },
-            {
-                "SrNO": "3",
-                "ResponseNum": "3",
-                "EmailID": "Anonymous",
-                "ParticipationStatus": "Completed",
-                "IPAddress": "Anonymous",
-                "StartTime": "12/28/2020 09:34 AM",
-                "EndTime": "12/28/2020 09:34 AM",
-                "AnswerSet": [
-                    {
-                        "QuestionNum": "1",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "2",
-                        "answer": "Unwell"
-                    },
-                    {
-                        "QuestionNum": "3(a)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(b)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(c)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(d)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(e)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "3(f)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "4",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(a)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(b)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(c)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(d)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(e)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(f)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(g)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(h)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(i)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(j)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(k)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "5(l)",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "6",
-                        "answer": ""
-                    },
-                    {
-                        "QuestionNum": "7",
-                        "answer": "I don't know"
-                    },
-                    {
-                        "QuestionNum": "8",
-                        "answer": ""
-                    }
-                ]
-            }
-        ]
-    },
-    "Status": "Success"
-}</t>
-  </si>
-  <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Fri, 12 Feb 2021 10:43:05 GMT, Content-Length=1140]</t>
-  </si>
-  <si>
-    <t>486b4440-54b7-4651-b897-4c1146e67af3</t>
+    <t>8b4da19b-f2dd-4b9e-a5aa-379775953a6a</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>200</t>
   </si>
   <si>
     <t>The maximum length of cell contents (text) is 32,767 characters</t>
   </si>
   <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Sat, 13 Mar 2021 14:28:09 GMT, Content-Length=21709]</t>
-  </si>
-  <si>
-    <t>{
-    "Status": "Success",
-    "Description": "Record(s) updated"
-}</t>
-  </si>
-  <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Sat, 13 Mar 2021 14:32:10 GMT, Content-Length=168]</t>
-  </si>
-  <si>
-    <t>{
-    "Status": "Success",
-    "Description": "Upsert successful."
-}</t>
-  </si>
-  <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Tue, 16 Mar 2021 15:09:32 GMT, Content-Length=166]</t>
-  </si>
-  <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Tue, 16 Mar 2021 15:13:43 GMT, Content-Length=1140]</t>
-  </si>
-  <si>
-    <t>[Cache-Control=no-cache, Pragma=no-cache, Content-Type=application/json; charset=utf-8, Content-Encoding=gzip, Expires=-1, Vary=Accept-Encoding, Server=Microsoft-IIS/8.5, X-Powered-By=UrlRewriter.NET 2.0.0, X-AspNet-Version=4.0.30319, X-Powered-By=ASP.NET, SET-COOKIE=;SameSite=None; secure, Date=Tue, 16 Mar 2021 15:15:42 GMT, Content-Length=21709]</t>
+    <t>[Date=Tue, 02 Aug 2022 11:28:10 GMT, Content-Type=application/json; charset=utf-8, Content-Length=21703, Connection=keep-alive, cache-control=no-cache, pragma=no-cache, content-encoding=gzip, expires=-1, vary=Accept-Encoding, server=Microsoft-IIS/10.0, x-powered-by=UrlRewriter.NET 2.0.0, x-aspnet-version=4.0.30319, x-powered-by=ASP.NET, set-cookie=;SameSite=None; secure, strict-transport-security=max-age=63072000, set-cookie=SERVERadmin=admin-2|YukKT|YukKT; path=/]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2758,110 +1760,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="8"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <u val="single"/>
-      <color indexed="12"/>
-    </font>
   </fonts>
-  <fills count="54">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2882,246 +1782,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="13"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="13"/>
       </patternFill>
     </fill>
     <fill>
@@ -3171,7 +1831,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -3192,40 +1852,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="39" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="51" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="53" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3516,8 +2142,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="42.85546875" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3536,7 +2162,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -3544,24 +2170,24 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3583,9 +2209,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="60.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3604,7 +2230,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -3620,17 +2246,17 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="4.5703125" collapsed="true"/>
+    <col min="1" max="1" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="4.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -3644,7 +2270,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -3655,13 +2281,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
@@ -3672,14 +2298,14 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3696,28 +2322,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC465A38-8D91-4E24-8C36-7B43119C878B}">
   <dimension ref="A1:AO55"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B55"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="8.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="6.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="51.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="15" max="27" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="28" max="40" customWidth="true" style="10" width="13.42578125" collapsed="true"/>
-    <col min="41" max="41" bestFit="true" customWidth="true" width="48.0" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="51.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="27" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="28" max="40" width="13.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="48" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
@@ -3731,159 +2357,159 @@
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="AO1" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="AK1" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="AL1" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="AM1" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="AN1" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="J2" s="18" t="s">
-        <v>252</v>
+        <v>176</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4">
@@ -3915,48 +2541,48 @@
       <c r="AM2" s="11"/>
       <c r="AN2" s="11"/>
       <c r="AO2" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>252</v>
+        <v>178</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4">
@@ -3988,48 +2614,48 @@
       <c r="AM3" s="11"/>
       <c r="AN3" s="11"/>
       <c r="AO3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>252</v>
+        <v>179</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N4" s="4"/>
       <c r="O4" s="4">
@@ -4061,51 +2687,51 @@
       <c r="AM4" s="11"/>
       <c r="AN4" s="11"/>
       <c r="AO4" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>252</v>
+        <v>180</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="O5" s="4">
         <v>6</v>
@@ -4136,48 +2762,48 @@
       <c r="AM5" s="11"/>
       <c r="AN5" s="11"/>
       <c r="AO5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>252</v>
+        <v>181</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4">
@@ -4209,48 +2835,48 @@
       <c r="AM6" s="11"/>
       <c r="AN6" s="11"/>
       <c r="AO6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>252</v>
+        <v>182</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N7" s="4"/>
       <c r="O7" s="4">
@@ -4282,48 +2908,48 @@
       <c r="AM7" s="11"/>
       <c r="AN7" s="11"/>
       <c r="AO7" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>252</v>
+        <v>183</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4">
@@ -4355,48 +2981,48 @@
       <c r="AM8" s="11"/>
       <c r="AN8" s="11"/>
       <c r="AO8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>252</v>
+        <v>184</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4">
@@ -4428,55 +3054,55 @@
       <c r="AM9" s="11"/>
       <c r="AN9" s="11"/>
       <c r="AO9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="19" t="s">
-        <v>174</v>
+      <c r="J10" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>263</v>
+        <v>177</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O10" s="4">
         <v>377</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -4489,16 +3115,16 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AB10" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AD10" s="14" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AE10" s="11"/>
       <c r="AF10" s="11"/>
@@ -4511,53 +3137,53 @@
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
       <c r="AO10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I11" s="5"/>
-      <c r="J11" s="16" t="s">
-        <v>174</v>
+      <c r="J11" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
       <c r="N11" s="4"/>
       <c r="O11" s="4">
         <v>378</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -4570,16 +3196,16 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AB11" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AC11" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AD11" s="14" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AE11" s="11"/>
       <c r="AF11" s="11"/>
@@ -4592,55 +3218,55 @@
       <c r="AM11" s="11"/>
       <c r="AN11" s="11"/>
       <c r="AO11" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="17" t="s">
-        <v>180</v>
+        <v>248</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O12" s="4">
         <v>379</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -4653,16 +3279,16 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AB12" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AC12" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AD12" s="14" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AE12" s="11"/>
       <c r="AF12" s="11"/>
@@ -4675,46 +3301,46 @@
       <c r="AM12" s="11"/>
       <c r="AN12" s="11"/>
       <c r="AO12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I13" s="5"/>
-      <c r="J13" s="16" t="s">
-        <v>174</v>
+      <c r="J13" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>255</v>
+        <v>177</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4">
@@ -4722,7 +3348,7 @@
       </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
@@ -4748,53 +3374,53 @@
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
       <c r="AO13" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I14" s="5"/>
-      <c r="J14" s="18" t="s">
-        <v>252</v>
+      <c r="J14" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4">
         <v>377</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -4809,16 +3435,16 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AB14" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AC14" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AD14" s="14" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
@@ -4831,53 +3457,53 @@
       <c r="AM14" s="11"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I15" s="5"/>
-      <c r="J15" s="18" t="s">
-        <v>252</v>
+      <c r="J15" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4">
         <v>378</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -4892,16 +3518,16 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AC15" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AD15" s="14" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
@@ -4914,53 +3540,53 @@
       <c r="AM15" s="11"/>
       <c r="AN15" s="11"/>
       <c r="AO15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I16" s="5"/>
-      <c r="J16" s="18" t="s">
-        <v>252</v>
+      <c r="J16" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4">
         <v>379</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -4975,16 +3601,16 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AB16" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AC16" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AD16" s="14" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="AE16" s="11"/>
       <c r="AF16" s="11"/>
@@ -4997,46 +3623,46 @@
       <c r="AM16" s="11"/>
       <c r="AN16" s="11"/>
       <c r="AO16" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I17" s="5"/>
-      <c r="J17" s="18" t="s">
-        <v>252</v>
+      <c r="J17" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4">
@@ -5044,7 +3670,7 @@
       </c>
       <c r="P17" s="4"/>
       <c r="Q17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
@@ -5072,49 +3698,49 @@
       <c r="AM17" s="11"/>
       <c r="AN17" s="11"/>
       <c r="AO17" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="20" t="s">
-        <v>174</v>
+      <c r="J18" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L18" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="N18" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="O18" s="4">
         <v>377</v>
@@ -5131,16 +3757,16 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AB18" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AC18" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AD18" s="11" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AE18" s="11"/>
       <c r="AF18" s="11"/>
@@ -5153,46 +3779,46 @@
       <c r="AM18" s="11"/>
       <c r="AN18" s="11"/>
       <c r="AO18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="18" t="s">
-        <v>252</v>
+      <c r="J19" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N19" s="4"/>
       <c r="O19" s="4">
@@ -5210,16 +3836,16 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AB19" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AC19" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AD19" s="11" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AE19" s="11"/>
       <c r="AF19" s="11"/>
@@ -5232,46 +3858,46 @@
       <c r="AM19" s="11"/>
       <c r="AN19" s="11"/>
       <c r="AO19" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="18" t="s">
-        <v>252</v>
+      <c r="J20" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N20" s="4"/>
       <c r="O20" s="4">
@@ -5289,16 +3915,16 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AB20" s="14" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="AC20" s="14" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AD20" s="11" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="AE20" s="11"/>
       <c r="AF20" s="11"/>
@@ -5311,46 +3937,46 @@
       <c r="AM20" s="11"/>
       <c r="AN20" s="11"/>
       <c r="AO20" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="18" t="s">
-        <v>252</v>
+      <c r="J21" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N21" s="4"/>
       <c r="O21" s="4">
@@ -5358,7 +3984,7 @@
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R21" s="4"/>
       <c r="S21" s="4"/>
@@ -5384,53 +4010,53 @@
       <c r="AM21" s="11"/>
       <c r="AN21" s="11"/>
       <c r="AO21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="18" t="s">
-        <v>252</v>
+      <c r="J22" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N22" s="4"/>
       <c r="O22" s="4">
         <v>377</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>3</v>
@@ -5443,10 +4069,10 @@
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y22" s="4">
         <v>7</v>
@@ -5467,53 +4093,53 @@
       <c r="AM22" s="11"/>
       <c r="AN22" s="11"/>
       <c r="AO22" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I23" s="5"/>
-      <c r="J23" s="18" t="s">
-        <v>252</v>
+      <c r="J23" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N23" s="4"/>
       <c r="O23" s="4">
         <v>378</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q23" s="4" t="s">
         <v>3</v>
@@ -5526,10 +4152,10 @@
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y23" s="4">
         <v>7</v>
@@ -5550,53 +4176,53 @@
       <c r="AM23" s="11"/>
       <c r="AN23" s="11"/>
       <c r="AO23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I24" s="5"/>
-      <c r="J24" s="18" t="s">
-        <v>252</v>
+      <c r="J24" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="4">
         <v>379</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q24" s="4" t="s">
         <v>3</v>
@@ -5609,10 +4235,10 @@
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y24" s="4">
         <v>7</v>
@@ -5633,56 +4259,56 @@
       <c r="AM24" s="11"/>
       <c r="AN24" s="11"/>
       <c r="AO24" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I25" s="5"/>
-      <c r="J25" s="18" t="s">
-        <v>252</v>
+      <c r="J25" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N25" s="4"/>
       <c r="O25" s="4">
         <v>321</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R25" s="4"/>
       <c r="S25" s="4"/>
@@ -5692,10 +4318,10 @@
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y25" s="4">
         <v>7</v>
@@ -5716,53 +4342,53 @@
       <c r="AM25" s="11"/>
       <c r="AN25" s="11"/>
       <c r="AO25" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I26" s="5"/>
-      <c r="J26" s="18" t="s">
-        <v>252</v>
+      <c r="J26" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N26" s="4"/>
       <c r="O26" s="4">
         <v>377</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q26" s="4" t="s">
         <v>3</v>
@@ -5770,15 +4396,15 @@
       <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y26" s="4">
         <v>7</v>
@@ -5799,46 +4425,46 @@
       <c r="AM26" s="11"/>
       <c r="AN26" s="11"/>
       <c r="AO26" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I27" s="5"/>
-      <c r="J27" s="18" t="s">
-        <v>252</v>
+      <c r="J27" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N27" s="4"/>
       <c r="O27" s="4">
@@ -5847,33 +4473,33 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T27" s="4"/>
       <c r="U27" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="AA27" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="AB27" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="AC27" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD27" s="14" t="s">
         <v>198</v>
-      </c>
-      <c r="AC27" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="AD27" s="14" t="s">
-        <v>202</v>
       </c>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
@@ -5886,46 +4512,46 @@
       <c r="AM27" s="12"/>
       <c r="AN27" s="12"/>
       <c r="AO27" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I28" s="5"/>
-      <c r="J28" s="18" t="s">
-        <v>252</v>
+      <c r="J28" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N28" s="4"/>
       <c r="O28" s="4">
@@ -5934,25 +4560,25 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T28" s="4"/>
       <c r="U28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
       <c r="Z28" s="4" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="AA28" s="4"/>
       <c r="AB28" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
@@ -5967,46 +4593,46 @@
       <c r="AM28" s="12"/>
       <c r="AN28" s="12"/>
       <c r="AO28" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I29" s="5"/>
-      <c r="J29" s="18" t="s">
-        <v>252</v>
+      <c r="J29" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4">
@@ -6015,33 +4641,33 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T29" s="4"/>
       <c r="U29" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
       <c r="Z29" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="AA29" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AB29" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AC29" s="13" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="AD29" s="13" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="AE29" s="12"/>
       <c r="AF29" s="12"/>
@@ -6054,46 +4680,46 @@
       <c r="AM29" s="12"/>
       <c r="AN29" s="12"/>
       <c r="AO29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I30" s="5"/>
-      <c r="J30" s="18" t="s">
-        <v>252</v>
+      <c r="J30" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L30" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4">
@@ -6102,25 +4728,25 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T30" s="4"/>
       <c r="U30" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="AA30" s="4"/>
       <c r="AB30" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AC30" s="13"/>
       <c r="AD30" s="13"/>
@@ -6135,46 +4761,46 @@
       <c r="AM30" s="12"/>
       <c r="AN30" s="12"/>
       <c r="AO30" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="5"/>
-      <c r="J31" s="18" t="s">
-        <v>252</v>
+      <c r="J31" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L31" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4">
@@ -6183,25 +4809,25 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T31" s="4"/>
       <c r="U31" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="AA31" s="4"/>
       <c r="AB31" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AC31" s="13"/>
       <c r="AD31" s="13"/>
@@ -6216,46 +4842,46 @@
       <c r="AM31" s="12"/>
       <c r="AN31" s="12"/>
       <c r="AO31" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" s="5"/>
-      <c r="J32" s="18" t="s">
-        <v>252</v>
+      <c r="J32" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4">
@@ -6264,25 +4890,25 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T32" s="4"/>
       <c r="U32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AA32" s="4"/>
       <c r="AB32" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC32" s="13"/>
       <c r="AD32" s="13"/>
@@ -6297,46 +4923,46 @@
       <c r="AM32" s="12"/>
       <c r="AN32" s="12"/>
       <c r="AO32" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" s="5"/>
-      <c r="J33" s="18" t="s">
-        <v>252</v>
+      <c r="J33" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L33" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4">
@@ -6345,10 +4971,10 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T33" s="4"/>
       <c r="U33" s="4" t="s">
@@ -6361,7 +4987,7 @@
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
       <c r="AB33" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
@@ -6376,46 +5002,46 @@
       <c r="AM33" s="12"/>
       <c r="AN33" s="12"/>
       <c r="AO33" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="5"/>
-      <c r="J34" s="18" t="s">
-        <v>252</v>
+      <c r="J34" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L34" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4">
@@ -6427,7 +5053,7 @@
         <v>3</v>
       </c>
       <c r="S34" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
@@ -6438,7 +5064,7 @@
       <c r="Z34" s="4"/>
       <c r="AA34" s="4"/>
       <c r="AB34" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC34" s="14"/>
       <c r="AD34" s="14"/>
@@ -6453,46 +5079,46 @@
       <c r="AM34" s="12"/>
       <c r="AN34" s="12"/>
       <c r="AO34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I35" s="5"/>
-      <c r="J35" s="18" t="s">
-        <v>252</v>
+      <c r="J35" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L35" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4">
@@ -6501,7 +5127,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S35" s="4" t="s">
         <v>3</v>
@@ -6515,7 +5141,7 @@
       <c r="Z35" s="4"/>
       <c r="AA35" s="4"/>
       <c r="AB35" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AC35" s="13"/>
       <c r="AD35" s="13"/>
@@ -6530,46 +5156,46 @@
       <c r="AM35" s="12"/>
       <c r="AN35" s="12"/>
       <c r="AO35" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I36" s="5"/>
-      <c r="J36" s="18" t="s">
-        <v>252</v>
+      <c r="J36" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L36" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4">
@@ -6588,7 +5214,7 @@
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
       <c r="AB36" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC36" s="14"/>
       <c r="AD36" s="14"/>
@@ -6605,46 +5231,46 @@
       <c r="AM36" s="13"/>
       <c r="AN36" s="13"/>
       <c r="AO36" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I37" s="5"/>
-      <c r="J37" s="18" t="s">
-        <v>252</v>
+      <c r="J37" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4">
@@ -6663,7 +5289,7 @@
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
       <c r="AB37" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AC37" s="14"/>
       <c r="AD37" s="14"/>
@@ -6680,46 +5306,46 @@
       <c r="AM37" s="13"/>
       <c r="AN37" s="13"/>
       <c r="AO37" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I38" s="5"/>
-      <c r="J38" s="18" t="s">
-        <v>252</v>
+      <c r="J38" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4">
@@ -6738,7 +5364,7 @@
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
       <c r="AB38" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC38" s="14"/>
       <c r="AD38" s="14"/>
@@ -6755,46 +5381,46 @@
       <c r="AM38" s="13"/>
       <c r="AN38" s="13"/>
       <c r="AO38" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I39" s="5"/>
-      <c r="J39" s="18" t="s">
-        <v>252</v>
+      <c r="J39" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L39" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4">
@@ -6813,7 +5439,7 @@
       <c r="Z39" s="4"/>
       <c r="AA39" s="4"/>
       <c r="AB39" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AC39" s="14"/>
       <c r="AD39" s="14"/>
@@ -6830,46 +5456,46 @@
       <c r="AM39" s="13"/>
       <c r="AN39" s="13"/>
       <c r="AO39" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I40" s="5"/>
-      <c r="J40" s="18" t="s">
-        <v>252</v>
+      <c r="J40" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L40" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4">
@@ -6888,7 +5514,7 @@
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
       <c r="AB40" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC40" s="14"/>
       <c r="AD40" s="14"/>
@@ -6905,46 +5531,46 @@
       <c r="AM40" s="13"/>
       <c r="AN40" s="13"/>
       <c r="AO40" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I41" s="5"/>
-      <c r="J41" s="18" t="s">
-        <v>252</v>
+      <c r="J41" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L41" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4">
@@ -6963,7 +5589,7 @@
       <c r="Z41" s="4"/>
       <c r="AA41" s="4"/>
       <c r="AB41" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC41" s="14"/>
       <c r="AD41" s="14"/>
@@ -6980,46 +5606,46 @@
       <c r="AM41" s="13"/>
       <c r="AN41" s="13"/>
       <c r="AO41" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I42" s="5"/>
-      <c r="J42" s="18" t="s">
-        <v>252</v>
+      <c r="J42" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L42" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4">
@@ -7038,7 +5664,7 @@
       <c r="Z42" s="4"/>
       <c r="AA42" s="4"/>
       <c r="AB42" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AC42" s="14"/>
       <c r="AD42" s="14"/>
@@ -7055,46 +5681,46 @@
       <c r="AM42" s="13"/>
       <c r="AN42" s="13"/>
       <c r="AO42" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I43" s="5"/>
-      <c r="J43" s="18" t="s">
-        <v>252</v>
+      <c r="J43" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L43" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M43" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4">
@@ -7113,7 +5739,7 @@
       <c r="Z43" s="4"/>
       <c r="AA43" s="4"/>
       <c r="AB43" s="14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC43" s="14"/>
       <c r="AD43" s="14"/>
@@ -7130,49 +5756,49 @@
       <c r="AM43" s="13"/>
       <c r="AN43" s="13"/>
       <c r="AO43" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I44" s="5"/>
-      <c r="J44" s="18" t="s">
-        <v>252</v>
+      <c r="J44" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L44" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="O44" s="4">
         <v>380</v>
@@ -7190,7 +5816,7 @@
       <c r="Z44" s="4"/>
       <c r="AA44" s="4"/>
       <c r="AB44" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC44" s="14"/>
       <c r="AD44" s="14"/>
@@ -7207,46 +5833,46 @@
       <c r="AM44" s="13"/>
       <c r="AN44" s="13"/>
       <c r="AO44" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I45" s="5"/>
-      <c r="J45" s="18" t="s">
-        <v>252</v>
+      <c r="J45" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L45" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M45" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4">
@@ -7265,7 +5891,7 @@
       <c r="Z45" s="4"/>
       <c r="AA45" s="4"/>
       <c r="AB45" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC45" s="14"/>
       <c r="AD45" s="14"/>
@@ -7282,46 +5908,46 @@
       <c r="AM45" s="13"/>
       <c r="AN45" s="13"/>
       <c r="AO45" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I46" s="5"/>
-      <c r="J46" s="18" t="s">
-        <v>252</v>
+      <c r="J46" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L46" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4">
@@ -7340,7 +5966,7 @@
       <c r="Z46" s="4"/>
       <c r="AA46" s="4"/>
       <c r="AB46" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC46" s="14"/>
       <c r="AD46" s="14"/>
@@ -7357,46 +5983,46 @@
       <c r="AM46" s="13"/>
       <c r="AN46" s="13"/>
       <c r="AO46" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I47" s="5"/>
-      <c r="J47" s="18" t="s">
-        <v>252</v>
+      <c r="J47" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4">
@@ -7415,7 +6041,7 @@
       <c r="Z47" s="4"/>
       <c r="AA47" s="4"/>
       <c r="AB47" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AC47" s="14"/>
       <c r="AD47" s="14"/>
@@ -7432,46 +6058,46 @@
       <c r="AM47" s="13"/>
       <c r="AN47" s="13"/>
       <c r="AO47" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I48" s="5"/>
-      <c r="J48" s="18" t="s">
-        <v>252</v>
+      <c r="J48" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -7492,7 +6118,7 @@
       <c r="AD48" s="14"/>
       <c r="AE48" s="13"/>
       <c r="AF48" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG48" s="13"/>
       <c r="AH48" s="13"/>
@@ -7503,55 +6129,55 @@
       <c r="AM48" s="13"/>
       <c r="AN48" s="13"/>
       <c r="AO48" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>223</v>
-      </c>
       <c r="I49" s="5"/>
-      <c r="J49" s="21" t="s">
-        <v>174</v>
+      <c r="J49" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L49" s="8" t="s">
-        <v>266</v>
+        <v>177</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>267</v>
+        <v>177</v>
       </c>
       <c r="N49" s="4" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="O49" s="4">
         <v>377</v>
       </c>
       <c r="P49" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
@@ -7582,53 +6208,53 @@
       <c r="AM49" s="13"/>
       <c r="AN49" s="13"/>
       <c r="AO49" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I50" s="5"/>
-      <c r="J50" s="40" t="s">
-        <v>174</v>
+      <c r="J50" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>277</v>
+        <v>177</v>
       </c>
       <c r="N50" s="4"/>
       <c r="O50" s="4">
         <v>381</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q50" s="4"/>
       <c r="R50" s="4" t="s">
@@ -7661,59 +6287,59 @@
       <c r="AM50" s="13"/>
       <c r="AN50" s="13"/>
       <c r="AO50" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I51" s="5"/>
-      <c r="J51" s="49" t="s">
-        <v>180</v>
+      <c r="J51" s="16" t="s">
+        <v>257</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="L51" s="8" t="s">
-        <v>181</v>
+        <v>259</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="N51" s="4" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="O51" s="4">
         <v>399</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q51" s="4"/>
       <c r="R51" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
@@ -7742,53 +6368,53 @@
       <c r="AM51" s="13"/>
       <c r="AN51" s="13"/>
       <c r="AO51" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="I52" s="5"/>
-      <c r="J52" s="32" t="s">
-        <v>174</v>
+      <c r="J52" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L52" s="8" t="s">
-        <v>273</v>
+        <v>177</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>274</v>
+        <v>177</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4">
         <v>377</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
@@ -7802,7 +6428,7 @@
       <c r="Z52" s="4"/>
       <c r="AA52" s="4"/>
       <c r="AB52" s="14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AC52" s="14"/>
       <c r="AD52" s="14"/>
@@ -7811,7 +6437,7 @@
       <c r="AG52" s="13"/>
       <c r="AH52" s="13"/>
       <c r="AI52" s="13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AJ52" s="13">
         <v>2</v>
@@ -7821,57 +6447,57 @@
         <v>0</v>
       </c>
       <c r="AM52" s="13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AN52" s="13"/>
       <c r="AO52" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="I53" s="5"/>
-      <c r="J53" s="18" t="s">
-        <v>252</v>
+      <c r="J53" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M53" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4">
         <v>377</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
@@ -7892,7 +6518,7 @@
       <c r="AG53" s="13"/>
       <c r="AH53" s="13"/>
       <c r="AI53" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AJ53" s="13">
         <v>1</v>
@@ -7904,57 +6530,57 @@
         <v>0</v>
       </c>
       <c r="AM53" s="13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AN53" s="13"/>
       <c r="AO53" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="I54" s="5"/>
-      <c r="J54" s="18" t="s">
-        <v>252</v>
+      <c r="J54" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="L54" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="4">
         <v>377</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
@@ -7968,7 +6594,7 @@
       <c r="Z54" s="4"/>
       <c r="AA54" s="4"/>
       <c r="AB54" s="14" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AC54" s="14"/>
       <c r="AD54" s="14"/>
@@ -7977,7 +6603,7 @@
       <c r="AG54" s="13"/>
       <c r="AH54" s="13"/>
       <c r="AI54" s="13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AJ54" s="13">
         <v>3</v>
@@ -7987,59 +6613,59 @@
         <v>0</v>
       </c>
       <c r="AM54" s="13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AN54" s="13" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AO54" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="I55" s="5"/>
-      <c r="J55" s="36" t="s">
-        <v>174</v>
+      <c r="J55" s="17" t="s">
+        <v>248</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L55" s="8" t="s">
-        <v>275</v>
+        <v>177</v>
       </c>
       <c r="M55" s="4" t="s">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="N55" s="4"/>
       <c r="O55" s="4">
         <v>377</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
@@ -8060,7 +6686,7 @@
       <c r="AG55" s="13"/>
       <c r="AH55" s="13"/>
       <c r="AI55" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AJ55" s="13">
         <v>3</v>
@@ -8072,11 +6698,11 @@
         <v>0</v>
       </c>
       <c r="AM55" s="13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AN55" s="13"/>
       <c r="AO55" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
